--- a/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>0,0; 9,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>0,0; 8,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,1</t>
+          <t>0,37; 4,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1204,6 +1204,13 @@
       <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 9,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,5</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,88</t>
+          <t>0,0; 8,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,0</t>
+          <t>0,37; 4,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0,0; 6,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1108,114 +1108,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 4,32</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
